--- a/ISRaD_data_files/Ewing_2006.xlsx
+++ b/ISRaD_data_files/Ewing_2006.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f0076db\Documents\GitHub\ISRaD\ISRaD_data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664226EE-A2E7-43AE-B4E0-47C54D63D3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0DFDFF-D5E0-4B71-8492-7440354979D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
     <definedName name="Heterotrophic__Autotrophic__Ecosystem__or_Aquatic">'controlled vocabulary'!$N$4:$N$8</definedName>
     <definedName name="i_moisture_type">'controlled vocabulary'!$AJ$4:$AJ$6</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="845">
   <si>
     <t>curator_name</t>
   </si>
@@ -3614,12 +3614,27 @@
   <si>
     <t>Fallbrook</t>
   </si>
+  <si>
+    <t>inc_analyte</t>
+  </si>
+  <si>
+    <t>inc_anaerobic</t>
+  </si>
+  <si>
+    <t>Incubation Analyte</t>
+  </si>
+  <si>
+    <t>Anaerobic Incubation Conditions</t>
+  </si>
+  <si>
+    <t>(inc_analyte)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3771,6 +3786,10 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="43">
@@ -5276,7 +5295,7 @@
   <dimension ref="A1:O985"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -20542,10 +20561,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AE200"/>
+  <dimension ref="A1:AG200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20562,17 +20581,17 @@
     <col min="10" max="10" width="11" style="115" customWidth="1"/>
     <col min="11" max="11" width="17.6328125" style="115" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" style="3" customWidth="1"/>
-    <col min="13" max="13" width="15.6328125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.81640625" style="3"/>
-    <col min="15" max="15" width="19.81640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="15.453125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="16.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.1796875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="8.81640625" style="3"/>
+    <col min="13" max="15" width="15.6328125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="8.81640625" style="3"/>
+    <col min="17" max="17" width="19.81640625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="15.453125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="16.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.1796875" style="3" customWidth="1"/>
+    <col min="21" max="21" width="12.453125" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="21" customFormat="1" ht="50" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" s="21" customFormat="1" ht="50" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>670</v>
       </c>
@@ -20613,61 +20632,67 @@
         <v>403</v>
       </c>
       <c r="N1" s="97" t="s">
+        <v>840</v>
+      </c>
+      <c r="O1" s="97" t="s">
+        <v>841</v>
+      </c>
+      <c r="P1" s="97" t="s">
         <v>404</v>
       </c>
-      <c r="O1" s="97" t="s">
+      <c r="Q1" s="97" t="s">
         <v>405</v>
       </c>
-      <c r="P1" s="97" t="s">
+      <c r="R1" s="97" t="s">
         <v>406</v>
       </c>
-      <c r="Q1" s="97" t="s">
+      <c r="S1" s="97" t="s">
         <v>766</v>
       </c>
-      <c r="R1" s="97" t="s">
+      <c r="T1" s="97" t="s">
         <v>407</v>
       </c>
-      <c r="S1" s="97" t="s">
+      <c r="U1" s="97" t="s">
         <v>408</v>
       </c>
-      <c r="T1" s="97" t="s">
+      <c r="V1" s="97" t="s">
         <v>759</v>
       </c>
-      <c r="U1" s="67" t="s">
+      <c r="W1" s="67" t="s">
         <v>409</v>
       </c>
-      <c r="V1" s="67" t="s">
+      <c r="X1" s="67" t="s">
         <v>703</v>
       </c>
-      <c r="W1" s="67" t="s">
+      <c r="Y1" s="67" t="s">
         <v>410</v>
       </c>
-      <c r="X1" s="67" t="s">
+      <c r="Z1" s="67" t="s">
         <v>411</v>
       </c>
-      <c r="Y1" s="67" t="s">
+      <c r="AA1" s="67" t="s">
         <v>412</v>
       </c>
-      <c r="Z1" s="67" t="s">
+      <c r="AB1" s="67" t="s">
         <v>413</v>
       </c>
-      <c r="AA1" s="67" t="s">
+      <c r="AC1" s="67" t="s">
         <v>414</v>
       </c>
-      <c r="AB1" s="39" t="s">
+      <c r="AD1" s="39" t="s">
         <v>415</v>
       </c>
-      <c r="AC1" s="67" t="s">
+      <c r="AE1" s="67" t="s">
         <v>416</v>
       </c>
-      <c r="AD1" s="67" t="s">
+      <c r="AF1" s="67" t="s">
         <v>417</v>
       </c>
-      <c r="AE1" s="39" t="s">
+      <c r="AG1" s="39" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="21" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" s="21" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>671</v>
       </c>
@@ -20703,58 +20728,64 @@
         <v>426</v>
       </c>
       <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55" t="s">
+      <c r="N2" s="98" t="s">
+        <v>842</v>
+      </c>
+      <c r="O2" s="98" t="s">
+        <v>843</v>
+      </c>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55" t="s">
         <v>321</v>
       </c>
-      <c r="P2" s="98" t="s">
+      <c r="R2" s="98" t="s">
         <v>726</v>
       </c>
-      <c r="Q2" s="98" t="s">
+      <c r="S2" s="98" t="s">
         <v>767</v>
       </c>
-      <c r="R2" s="98" t="s">
+      <c r="T2" s="98" t="s">
         <v>424</v>
       </c>
-      <c r="S2" s="98" t="s">
+      <c r="U2" s="98" t="s">
         <v>425</v>
       </c>
-      <c r="T2" s="98"/>
-      <c r="U2" s="48" t="s">
+      <c r="V2" s="98"/>
+      <c r="W2" s="48" t="s">
         <v>423</v>
       </c>
-      <c r="V2" s="48" t="s">
+      <c r="X2" s="48" t="s">
         <v>704</v>
       </c>
-      <c r="W2" s="49" t="s">
+      <c r="Y2" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="X2" s="49" t="s">
+      <c r="Z2" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="Y2" s="49" t="s">
+      <c r="AA2" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="Z2" s="49" t="s">
+      <c r="AB2" s="49" t="s">
         <v>328</v>
       </c>
-      <c r="AA2" s="48" t="s">
+      <c r="AC2" s="48" t="s">
         <v>422</v>
       </c>
-      <c r="AB2" s="48" t="s">
+      <c r="AD2" s="48" t="s">
         <v>421</v>
       </c>
-      <c r="AC2" s="48" t="s">
+      <c r="AE2" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="AD2" s="48" t="s">
+      <c r="AF2" s="48" t="s">
         <v>420</v>
       </c>
-      <c r="AE2" s="48" t="s">
+      <c r="AG2" s="48" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>364</v>
       </c>
@@ -20780,44 +20811,50 @@
       <c r="M3" s="111" t="s">
         <v>705</v>
       </c>
-      <c r="N3" s="110" t="s">
+      <c r="N3" s="111" t="s">
+        <v>844</v>
+      </c>
+      <c r="O3" s="111" t="s">
+        <v>375</v>
+      </c>
+      <c r="P3" s="110" t="s">
         <v>320</v>
       </c>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="111" t="s">
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="111" t="s">
         <v>768</v>
       </c>
-      <c r="R3" s="110" t="s">
+      <c r="T3" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="64" t="s">
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="V3" s="64" t="s">
+      <c r="X3" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64" t="s">
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="Z3" s="64" t="s">
+      <c r="AB3" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AA3" s="64" t="s">
+      <c r="AC3" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AB3" s="60" t="s">
+      <c r="AD3" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="60"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="60"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>811</v>
       </c>
@@ -20846,29 +20883,32 @@
       <c r="M4" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="P4" s="3">
         <v>15</v>
       </c>
-      <c r="P4" s="3">
+      <c r="R4" s="3">
         <v>60</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="S4" s="3">
+      <c r="U4" s="3">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="AB4" s="3">
         <v>-118</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>811</v>
       </c>
@@ -20897,29 +20937,32 @@
       <c r="M5" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="P5" s="3">
         <v>15</v>
       </c>
-      <c r="P5" s="3">
+      <c r="R5" s="3">
         <v>60</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="S5" s="3">
+      <c r="U5" s="3">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="AB5" s="3">
         <v>-596</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>811</v>
       </c>
@@ -20948,29 +20991,32 @@
       <c r="M6" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="P6" s="3">
         <v>15</v>
       </c>
-      <c r="P6" s="3">
+      <c r="R6" s="3">
         <v>60</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="S6" s="3">
+      <c r="U6" s="3">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="Y6" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="AB6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>811</v>
       </c>
@@ -20999,29 +21045,32 @@
       <c r="M7" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="P7" s="3">
         <v>15</v>
       </c>
-      <c r="P7" s="3">
+      <c r="R7" s="3">
         <v>60</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="S7" s="3">
+      <c r="U7" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="AB7" s="3">
         <v>-812</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>811</v>
       </c>
@@ -21050,29 +21099,32 @@
       <c r="M8" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="P8" s="3">
         <v>15</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>60</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>811</v>
       </c>
@@ -21101,29 +21153,32 @@
       <c r="M9" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="P9" s="3">
         <v>15</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>60</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>811</v>
       </c>
@@ -21152,29 +21207,32 @@
       <c r="M10" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="P10" s="3">
         <v>15</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>60</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>-64</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>811</v>
       </c>
@@ -21203,45 +21261,48 @@
       <c r="M11" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="P11" s="3">
         <v>15</v>
       </c>
-      <c r="P11" s="3">
+      <c r="R11" s="3">
         <v>60</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="S11" s="3">
+      <c r="U11" s="3">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="Y11" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="AB11" s="3">
         <v>-332</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B12" s="8"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B13" s="8"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B14" s="8"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B15" s="8"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" s="8"/>
       <c r="C16" s="3"/>
     </row>
@@ -21845,6 +21906,7 @@
       <c r="B200" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -21860,7 +21922,7 @@
           <x14:formula1>
             <xm:f>'controlled vocabulary'!$AJ$4:$AJ$6</xm:f>
           </x14:formula1>
-          <xm:sqref>O4:O1048576</xm:sqref>
+          <xm:sqref>Q4:Q1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000002000000}">
           <x14:formula1>
@@ -21884,7 +21946,7 @@
           <x14:formula1>
             <xm:f>'controlled vocabulary'!$AL$4:$AL$5</xm:f>
           </x14:formula1>
-          <xm:sqref>T4:T1048576</xm:sqref>
+          <xm:sqref>V4:V1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000006000000}">
           <x14:formula1>
@@ -21896,7 +21958,7 @@
           <x14:formula1>
             <xm:f>'controlled vocabulary'!$AK$4:$AK$5</xm:f>
           </x14:formula1>
-          <xm:sqref>Q4:Q1048576</xm:sqref>
+          <xm:sqref>S4:S1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000008000000}">
           <x14:formula1>
